--- a/GPU/Code Versions.xlsx
+++ b/GPU/Code Versions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study_Master\WrittenAssignment\WorkSpace_CUDA\GPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF45A673-5F83-4090-ACE8-62F027770EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100638D6-BCF1-48F5-93B0-80A5F471CDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>GPU Initialization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>GPU Time Step Calculation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +43,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shared Memory Optimization in SLIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Single Kernel Optimization in SLIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3</t>
+    <t xml:space="preserve"> Optimization in SLIC (Single Kernel, Shared Memory)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,42 +421,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="33.4140625" customWidth="1"/>
-    <col min="5" max="5" width="27.4140625" customWidth="1"/>
-    <col min="6" max="6" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.4140625" customWidth="1"/>
+    <col min="4" max="4" width="35.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -477,18 +457,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -499,96 +473,60 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
